--- a/Codes/sim_res_new_compose.xlsx
+++ b/Codes/sim_res_new_compose.xlsx
@@ -528,34 +528,34 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.500075983608896</v>
+        <v>0.3747421302706106</v>
       </c>
       <c r="D2" t="n">
-        <v>1.500897268555806</v>
+        <v>0.3724609300035546</v>
       </c>
       <c r="E2" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>236.7035</v>
+        <v>247.5965</v>
       </c>
       <c r="I2" t="n">
-        <v>15.528</v>
+        <v>15.5705</v>
       </c>
       <c r="J2" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L2" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M2" t="n">
         <v>20</v>
@@ -567,13 +567,13 @@
         <v>0.4</v>
       </c>
       <c r="P2" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3">
@@ -584,34 +584,34 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.498501407053922</v>
+        <v>0.3748635986886926</v>
       </c>
       <c r="D3" t="n">
-        <v>1.485092134198095</v>
+        <v>0.3741612606538582</v>
       </c>
       <c r="E3" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G3" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>236.336</v>
+        <v>245.689</v>
       </c>
       <c r="I3" t="n">
-        <v>15.1755</v>
+        <v>15.5075</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L3" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M3" t="n">
         <v>20</v>
@@ -623,13 +623,13 @@
         <v>0.4</v>
       </c>
       <c r="P3" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
@@ -640,34 +640,34 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1.498273608864609</v>
+        <v>0.3748343463388156</v>
       </c>
       <c r="D4" t="n">
-        <v>1.494721507145469</v>
+        <v>0.3755717660721665</v>
       </c>
       <c r="E4" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F4" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>235.245</v>
+        <v>241.054</v>
       </c>
       <c r="I4" t="n">
-        <v>14.9575</v>
+        <v>15.2625</v>
       </c>
       <c r="J4" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K4" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L4" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>20</v>
@@ -679,13 +679,13 @@
         <v>0.4</v>
       </c>
       <c r="P4" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5">
@@ -696,34 +696,34 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.497732035137703</v>
+        <v>0.3744463366633325</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4906523846425</v>
+        <v>0.3745850151985889</v>
       </c>
       <c r="E5" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F5" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>233.261</v>
+        <v>243.034</v>
       </c>
       <c r="I5" t="n">
-        <v>14.8455</v>
+        <v>15.591</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K5" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M5" t="n">
         <v>20</v>
@@ -735,13 +735,13 @@
         <v>0.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6">
@@ -752,34 +752,34 @@
         <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.505777016958717</v>
+        <v>0.3755029992263551</v>
       </c>
       <c r="D6" t="n">
-        <v>1.491006380166561</v>
+        <v>0.3731886182092872</v>
       </c>
       <c r="E6" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F6" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>239.389</v>
+        <v>242.2815</v>
       </c>
       <c r="I6" t="n">
-        <v>15.6535</v>
+        <v>16.3745</v>
       </c>
       <c r="J6" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K6" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L6" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
         <v>20</v>
@@ -791,13 +791,13 @@
         <v>0.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7">
@@ -808,34 +808,34 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.50043472587856</v>
+        <v>0.3745754889552104</v>
       </c>
       <c r="D7" t="n">
-        <v>1.490504972967356</v>
+        <v>0.3725018713531518</v>
       </c>
       <c r="E7" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F7" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G7" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>239.747</v>
+        <v>243.976</v>
       </c>
       <c r="I7" t="n">
-        <v>14.9515</v>
+        <v>15.7705</v>
       </c>
       <c r="J7" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K7" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L7" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M7" t="n">
         <v>20</v>
@@ -847,13 +847,13 @@
         <v>0.4</v>
       </c>
       <c r="P7" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8">
@@ -864,34 +864,34 @@
         <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1.500213800123076</v>
+        <v>0.3741189024874865</v>
       </c>
       <c r="D8" t="n">
-        <v>1.500940784964844</v>
+        <v>0.3757363565593337</v>
       </c>
       <c r="E8" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F8" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>235.014</v>
+        <v>243.6905</v>
       </c>
       <c r="I8" t="n">
-        <v>14.2345</v>
+        <v>14.8275</v>
       </c>
       <c r="J8" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K8" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L8" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
         <v>20</v>
@@ -903,13 +903,13 @@
         <v>0.4</v>
       </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9">
@@ -920,34 +920,34 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1.501343493283542</v>
+        <v>0.3759703498798626</v>
       </c>
       <c r="D9" t="n">
-        <v>1.49169198986428</v>
+        <v>0.3766732818693439</v>
       </c>
       <c r="E9" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>227.782</v>
+        <v>244.1955</v>
       </c>
       <c r="I9" t="n">
-        <v>14.2855</v>
+        <v>15.736</v>
       </c>
       <c r="J9" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K9" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L9" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M9" t="n">
         <v>20</v>
@@ -959,13 +959,13 @@
         <v>0.4</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10">
@@ -976,34 +976,34 @@
         <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1.495770270962478</v>
+        <v>0.3751342199540775</v>
       </c>
       <c r="D10" t="n">
-        <v>1.498077449649728</v>
+        <v>0.3781054631692043</v>
       </c>
       <c r="E10" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F10" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>238.6005</v>
+        <v>242.763</v>
       </c>
       <c r="I10" t="n">
-        <v>15.8015</v>
+        <v>16.104</v>
       </c>
       <c r="J10" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K10" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L10" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>20</v>
@@ -1015,13 +1015,13 @@
         <v>0.4</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
@@ -1032,34 +1032,34 @@
         <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.503796887113292</v>
+        <v>0.3754923231912871</v>
       </c>
       <c r="D11" t="n">
-        <v>1.496478889157153</v>
+        <v>0.3761368209215632</v>
       </c>
       <c r="E11" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F11" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>234.0885</v>
+        <v>245.567</v>
       </c>
       <c r="I11" t="n">
-        <v>15.154</v>
+        <v>15.7305</v>
       </c>
       <c r="J11" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L11" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M11" t="n">
         <v>20</v>
@@ -1071,13 +1071,13 @@
         <v>0.4</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12">
@@ -1088,34 +1088,34 @@
         <v>0.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.498501895573193</v>
+        <v>0.3752006321421303</v>
       </c>
       <c r="D12" t="n">
-        <v>1.480603690199994</v>
+        <v>0.3766609695050495</v>
       </c>
       <c r="E12" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F12" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>242.511</v>
+        <v>244.622</v>
       </c>
       <c r="I12" t="n">
-        <v>15.775</v>
+        <v>16.3115</v>
       </c>
       <c r="J12" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K12" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L12" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M12" t="n">
         <v>20</v>
@@ -1127,13 +1127,13 @@
         <v>0.4</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13">
@@ -1144,34 +1144,34 @@
         <v>0.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.498204938864913</v>
+        <v>0.3749841418855105</v>
       </c>
       <c r="D13" t="n">
-        <v>1.501751753395913</v>
+        <v>0.3753696738771313</v>
       </c>
       <c r="E13" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F13" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>233.2475</v>
+        <v>245.921</v>
       </c>
       <c r="I13" t="n">
-        <v>15.0225</v>
+        <v>15.654</v>
       </c>
       <c r="J13" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K13" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L13" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
         <v>20</v>
@@ -1183,13 +1183,13 @@
         <v>0.4</v>
       </c>
       <c r="P13" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14">
@@ -1200,34 +1200,34 @@
         <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.50199918731488</v>
+        <v>0.3750824270745375</v>
       </c>
       <c r="D14" t="n">
-        <v>1.505244734960671</v>
+        <v>0.3715663198446936</v>
       </c>
       <c r="E14" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F14" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>240.0115</v>
+        <v>244.3705</v>
       </c>
       <c r="I14" t="n">
-        <v>15.86</v>
+        <v>15.2015</v>
       </c>
       <c r="J14" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K14" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L14" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M14" t="n">
         <v>20</v>
@@ -1239,13 +1239,13 @@
         <v>0.4</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15">
@@ -1256,34 +1256,34 @@
         <v>0.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.502365637950255</v>
+        <v>0.3751977371928226</v>
       </c>
       <c r="D15" t="n">
-        <v>1.494041069256096</v>
+        <v>0.3733542556334017</v>
       </c>
       <c r="E15" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F15" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>237.498</v>
+        <v>245.209</v>
       </c>
       <c r="I15" t="n">
-        <v>14.679</v>
+        <v>15.7505</v>
       </c>
       <c r="J15" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K15" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L15" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M15" t="n">
         <v>20</v>
@@ -1295,13 +1295,13 @@
         <v>0.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16">
@@ -1312,34 +1312,34 @@
         <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.498476470668165</v>
+        <v>0.3747813900929671</v>
       </c>
       <c r="D16" t="n">
-        <v>1.506995450632556</v>
+        <v>0.3753889338052085</v>
       </c>
       <c r="E16" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F16" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G16" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>230.383</v>
+        <v>242.1245</v>
       </c>
       <c r="I16" t="n">
-        <v>14.8865</v>
+        <v>14.786</v>
       </c>
       <c r="J16" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K16" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L16" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M16" t="n">
         <v>20</v>
@@ -1351,13 +1351,13 @@
         <v>0.4</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17">
@@ -1368,34 +1368,34 @@
         <v>0.5</v>
       </c>
       <c r="C17" t="n">
-        <v>1.496733588596463</v>
+        <v>0.3754482062994925</v>
       </c>
       <c r="D17" t="n">
-        <v>1.480657792472994</v>
+        <v>0.3778700249228165</v>
       </c>
       <c r="E17" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F17" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H17" t="n">
-        <v>232.535</v>
+        <v>241.95</v>
       </c>
       <c r="I17" t="n">
-        <v>15.4385</v>
+        <v>15.175</v>
       </c>
       <c r="J17" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K17" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L17" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M17" t="n">
         <v>20</v>
@@ -1407,13 +1407,13 @@
         <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18">
@@ -1424,34 +1424,34 @@
         <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1.499367719549975</v>
+        <v>0.3752570764567171</v>
       </c>
       <c r="D18" t="n">
-        <v>1.500478964565748</v>
+        <v>0.3760375178655675</v>
       </c>
       <c r="E18" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F18" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>239.273</v>
+        <v>244.4605</v>
       </c>
       <c r="I18" t="n">
-        <v>15.272</v>
+        <v>15.873</v>
       </c>
       <c r="J18" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K18" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L18" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
         <v>20</v>
@@ -1463,13 +1463,13 @@
         <v>0.4</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19">
@@ -1480,34 +1480,34 @@
         <v>0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.501009427211297</v>
+        <v>0.3747615440255672</v>
       </c>
       <c r="D19" t="n">
-        <v>1.499083128460571</v>
+        <v>0.3770697169813064</v>
       </c>
       <c r="E19" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F19" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G19" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>237.4495</v>
+        <v>245.8645</v>
       </c>
       <c r="I19" t="n">
-        <v>14.654</v>
+        <v>15.854</v>
       </c>
       <c r="J19" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K19" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L19" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M19" t="n">
         <v>20</v>
@@ -1519,13 +1519,13 @@
         <v>0.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20">
@@ -1536,34 +1536,34 @@
         <v>0.5</v>
       </c>
       <c r="C20" t="n">
-        <v>1.495426115754465</v>
+        <v>0.3748322782324521</v>
       </c>
       <c r="D20" t="n">
-        <v>1.495988138007315</v>
+        <v>0.3732375074866324</v>
       </c>
       <c r="E20" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F20" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>237.851</v>
+        <v>245.5465</v>
       </c>
       <c r="I20" t="n">
-        <v>14.9155</v>
+        <v>15.546</v>
       </c>
       <c r="J20" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K20" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L20" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M20" t="n">
         <v>20</v>
@@ -1575,13 +1575,13 @@
         <v>0.4</v>
       </c>
       <c r="P20" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21">
@@ -1592,34 +1592,34 @@
         <v>0.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1.503883642644009</v>
+        <v>0.3747450054463865</v>
       </c>
       <c r="D21" t="n">
-        <v>1.489596645702298</v>
+        <v>0.3736674755962593</v>
       </c>
       <c r="E21" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F21" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>231.0665</v>
+        <v>244.858</v>
       </c>
       <c r="I21" t="n">
-        <v>14.883</v>
+        <v>15.6305</v>
       </c>
       <c r="J21" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K21" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L21" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M21" t="n">
         <v>20</v>
@@ -1631,13 +1631,13 @@
         <v>0.4</v>
       </c>
       <c r="P21" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22">
@@ -1648,34 +1648,34 @@
         <v>0.5</v>
       </c>
       <c r="C22" t="n">
-        <v>1.502054222638118</v>
+        <v>0.3744873571885856</v>
       </c>
       <c r="D22" t="n">
-        <v>1.508496328780546</v>
+        <v>0.3772974314299752</v>
       </c>
       <c r="E22" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F22" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G22" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>232.699</v>
+        <v>242.453</v>
       </c>
       <c r="I22" t="n">
-        <v>15.3575</v>
+        <v>15.965</v>
       </c>
       <c r="J22" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K22" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L22" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M22" t="n">
         <v>20</v>
@@ -1687,13 +1687,13 @@
         <v>0.4</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23">
@@ -1704,34 +1704,34 @@
         <v>0.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.498819477385107</v>
+        <v>0.3750369028048843</v>
       </c>
       <c r="D23" t="n">
-        <v>1.490641676136236</v>
+        <v>0.3754720844096948</v>
       </c>
       <c r="E23" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F23" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>231.3515</v>
+        <v>244.1305</v>
       </c>
       <c r="I23" t="n">
-        <v>14.1175</v>
+        <v>15.408</v>
       </c>
       <c r="J23" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K23" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L23" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M23" t="n">
         <v>20</v>
@@ -1743,13 +1743,13 @@
         <v>0.4</v>
       </c>
       <c r="P23" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24">
@@ -1760,34 +1760,34 @@
         <v>0.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.498071237015068</v>
+        <v>0.3749109031732596</v>
       </c>
       <c r="D24" t="n">
-        <v>1.5141329778735</v>
+        <v>0.375999916261451</v>
       </c>
       <c r="E24" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F24" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G24" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H24" t="n">
-        <v>236.589</v>
+        <v>243.8</v>
       </c>
       <c r="I24" t="n">
-        <v>15.126</v>
+        <v>15.7555</v>
       </c>
       <c r="J24" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K24" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L24" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M24" t="n">
         <v>20</v>
@@ -1799,13 +1799,13 @@
         <v>0.4</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25">
@@ -1816,34 +1816,34 @@
         <v>0.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.503821784224683</v>
+        <v>0.3747966294084202</v>
       </c>
       <c r="D25" t="n">
-        <v>1.502077144285559</v>
+        <v>0.3759501907782944</v>
       </c>
       <c r="E25" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F25" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>240.7365</v>
+        <v>243.6975</v>
       </c>
       <c r="I25" t="n">
-        <v>15.0485</v>
+        <v>15.8115</v>
       </c>
       <c r="J25" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K25" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L25" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M25" t="n">
         <v>20</v>
@@ -1855,13 +1855,13 @@
         <v>0.4</v>
       </c>
       <c r="P25" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26">
@@ -1872,34 +1872,34 @@
         <v>0.5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.505731811685582</v>
+        <v>0.3749132574569778</v>
       </c>
       <c r="D26" t="n">
-        <v>1.493938566481511</v>
+        <v>0.3755020985051997</v>
       </c>
       <c r="E26" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F26" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>236.5195</v>
+        <v>243.0525</v>
       </c>
       <c r="I26" t="n">
-        <v>14.909</v>
+        <v>15.1095</v>
       </c>
       <c r="J26" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K26" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L26" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M26" t="n">
         <v>20</v>
@@ -1911,13 +1911,13 @@
         <v>0.4</v>
       </c>
       <c r="P26" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27">
@@ -1928,34 +1928,34 @@
         <v>0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.498031114873939</v>
+        <v>0.3749002591494613</v>
       </c>
       <c r="D27" t="n">
-        <v>1.492694217511817</v>
+        <v>0.374209013889927</v>
       </c>
       <c r="E27" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F27" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H27" t="n">
-        <v>236.863</v>
+        <v>246.531</v>
       </c>
       <c r="I27" t="n">
-        <v>15.0055</v>
+        <v>15.8495</v>
       </c>
       <c r="J27" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K27" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L27" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M27" t="n">
         <v>20</v>
@@ -1967,13 +1967,13 @@
         <v>0.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28">
@@ -1984,34 +1984,34 @@
         <v>0.5</v>
       </c>
       <c r="C28" t="n">
-        <v>1.503688524900652</v>
+        <v>0.3749074300273422</v>
       </c>
       <c r="D28" t="n">
-        <v>1.503377573672026</v>
+        <v>0.3734966551664418</v>
       </c>
       <c r="E28" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F28" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>238.9625</v>
+        <v>244.2755</v>
       </c>
       <c r="I28" t="n">
-        <v>14.7755</v>
+        <v>15.8765</v>
       </c>
       <c r="J28" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K28" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L28" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M28" t="n">
         <v>20</v>
@@ -2023,13 +2023,13 @@
         <v>0.4</v>
       </c>
       <c r="P28" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29">
@@ -2040,34 +2040,34 @@
         <v>0.5</v>
       </c>
       <c r="C29" t="n">
-        <v>1.507043420359592</v>
+        <v>0.3752305919325185</v>
       </c>
       <c r="D29" t="n">
-        <v>1.496500677066917</v>
+        <v>0.3741259273621144</v>
       </c>
       <c r="E29" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F29" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G29" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>236.389</v>
+        <v>243.8955</v>
       </c>
       <c r="I29" t="n">
-        <v>14.172</v>
+        <v>15.925</v>
       </c>
       <c r="J29" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K29" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L29" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M29" t="n">
         <v>20</v>
@@ -2079,13 +2079,13 @@
         <v>0.4</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30">
@@ -2096,34 +2096,34 @@
         <v>0.5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.498181742576887</v>
+        <v>0.3748722363839088</v>
       </c>
       <c r="D30" t="n">
-        <v>1.499367787092254</v>
+        <v>0.3745581642543107</v>
       </c>
       <c r="E30" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="F30" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="G30" t="n">
         <v>15.66666666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>235.5275</v>
+        <v>247.354</v>
       </c>
       <c r="I30" t="n">
-        <v>15.2765</v>
+        <v>15.792</v>
       </c>
       <c r="J30" t="n">
-        <v>2.35</v>
+        <v>2.444</v>
       </c>
       <c r="K30" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="L30" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M30" t="n">
         <v>20</v>
@@ -2135,13 +2135,13 @@
         <v>0.4</v>
       </c>
       <c r="P30" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
